--- a/biology/Médecine/Joseph_Berberich/Joseph_Berberich.xlsx
+++ b/biology/Médecine/Joseph_Berberich/Joseph_Berberich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Berberich, aussi nommé Josef Berberich, né le 20 mai 1897 à Grosskrotzenburg, province de Hesse-Nassau (Allemagne) et décédé le 3 juin 1969 à New-York (Etats-Unis), est un professeur d'otorhinolaryngologie allemand.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1914, Joseph Berberich réussit son examen de fin d'études au lycée de Hanau. Il étudie la médecine aux universités de Francfort-sur-le-Main et de Berlin.
-Pendant la Première Guerre mondiale, il se porte volontaire dans le régiment d'Uhlan n°6 à Hanau, puis il devient médecin militaire[1].
+Pendant la Première Guerre mondiale, il se porte volontaire dans le régiment d'Uhlan n°6 à Hanau, puis il devient médecin militaire.
 Il obtient le doctorat en 1919.
 De 1920 à 1924 il est l'élève du professeur de pathologie Bernhard Fischer-Wasels à l'Institut de Pathologie Senckenberg de l'Université de Francfort.
 En 1924, il est l'élève du professeur Otto Voss et se spécialise en otorhinolaryngologie. Il devient assistant, puis médecin-chef à la Clinique des oreilles, du nez et de la gorge de Francfort. En 1927, il est nommé professeur de médecine de l'oreille et de rhinologie.
@@ -547,7 +561,9 @@
           <t>National-socialisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille juive, il est destitué de son poste universitaire par la Loi allemande sur la restauration de la fonction publique du 7 avril 1933. Il a également dû renoncer à son poste de médecin-chef. Cependant, il a continué à diriger son cabinet médical jusqu'en 1938, date à laquelle il parvient à fuir au Royaume-Uni.
 </t>
@@ -578,7 +594,9 @@
           <t>Émigration aux USA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1940, il émigre aux États-Unis et installe un cabinet médical à New-York. Il devient éditeur de la revue médicale Proceedings of the Rudolf Virchow Medical Society in the City of New York.
 </t>
@@ -609,12 +627,52 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En tant que scientifique, Joseph Berberich a étudié le traumatisme cérébral du nouveau-né induit par l'accouchement, la myélographie, la sclérose en plaques, l'apoplexie et la surdité, l'otospongiose, les maladies vasculaires de l'oreille.
-Publications
-Sur le traumatisme obstétrical
-1924 : (de) Joseph Berberich et A. Wiechers, « Zur Symptomatologie des Geburtstraumas. », Zeitschrift für Kinderheilkunde,‎ 1924 (DOI 10.1007/BF02224924)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que scientifique, Joseph Berberich a étudié le traumatisme cérébral du nouveau-né induit par l'accouchement, la myélographie, la sclérose en plaques, l'apoplexie et la surdité, l'otospongiose, les maladies vasculaires de l'oreille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joseph_Berberich</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Berberich</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sur le traumatisme obstétrical</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1924 : (de) Joseph Berberich et A. Wiechers, « Zur Symptomatologie des Geburtstraumas. », Zeitschrift für Kinderheilkunde,‎ 1924 (DOI 10.1007/BF02224924)
 1925 : (de) Joseph Berberich, « Experimentelle Untersuchungen über das Geburtstrauma des Felsenbeines. », Deutsche Medizinische Wochenschrift,‎ octobre 1925 (DOI 10.1055/s-0028-1137245)
 1925 : (de) Joseph Berberich et R. Baer, « Fettbefunde im Gehirn fötaler und neugeborener Tiere », Mönch. med. Wschr.,‎ 1925
 1925 : (de) Joseph Berberich et M. Stern, « Beitrag zur Mechanik der Entstehung geburtstraumatischer Felsenbeinblutungen. », Z. Hals-Nasen-Ohrenheilk,‎ 1925
@@ -624,31 +682,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Joseph_Berberich</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joseph_Berberich</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville de Grosskrotzenburg a lui a rendu hommage en nommant une de ses rues Joseph-Berberich-Strasse.
 </t>
